--- a/parametry_wyszukiwania.xlsx
+++ b/parametry_wyszukiwania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkubon\kn\0-git-repos\GUNB-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BAC570-07E6-4540-B8E0-90FF2F1F10E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC7DCB-D2EC-471D-87F3-1DA2DB0E4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane wyszukiwania" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>Ścieżka do zrzutów ekranu</t>
   </si>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EEE4D-70EA-45EF-AAA7-E4FCDFE1EF41}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F2130B-AE04-4DA9-A832-356506F1823D}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,9 @@
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/parametry_wyszukiwania.xlsx
+++ b/parametry_wyszukiwania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkubon\kn\0-git-repos\GUNB-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC7DCB-D2EC-471D-87F3-1DA2DB0E4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D21D78-5507-408C-ACDB-43965675EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane wyszukiwania" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>Ścieżka do zrzutów ekranu</t>
   </si>
@@ -91,21 +91,6 @@
   </si>
   <si>
     <t>Wyszukiwanie pozwoleń na budowę</t>
-  </si>
-  <si>
-    <t>Decyzja pozytywna</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Prezydent Miasta Siedlce</t>
-  </si>
-  <si>
-    <t>budowa nowego/nowych obiektów budowlanyc</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Url</t>
@@ -433,6 +418,8 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,7 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,7 +446,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,17 +468,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8A058C7-B6DA-44F1-9EE6-39D94715F89D}" name="Table1" displayName="Table1" ref="A1:B1048576" totalsRowShown="0">
-  <autoFilter ref="A1:B1048576" xr:uid="{F8A058C7-B6DA-44F1-9EE6-39D94715F89D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B67469E-226B-4E2E-8A6D-50022B10DA14}" name="Nazwa parametru"/>
-    <tableColumn id="2" xr3:uid="{317BB233-10EB-45D2-A8D1-2115F37AE65E}" name="Wartość"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,7 +736,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,174 +754,196 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -968,14 +964,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F2130B-AE04-4DA9-A832-356506F1823D}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,403 +979,403 @@
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B77E10-6419-4111-A34F-0ADC4DC4592B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,26 +1415,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/parametry_wyszukiwania.xlsx
+++ b/parametry_wyszukiwania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkubon\kn\0-git-repos\GUNB-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D21D78-5507-408C-ACDB-43965675EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062ABAE9-D360-4EB2-8799-C4276DB47D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane wyszukiwania" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>Ścieżka do zrzutów ekranu</t>
   </si>
@@ -93,6 +93,15 @@
     <t>Wyszukiwanie pozwoleń na budowę</t>
   </si>
   <si>
+    <t>Decyzja pozytywna</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>Url</t>
   </si>
   <si>
@@ -301,6 +310,12 @@
   </si>
   <si>
     <t>Zamierzenie budowlane</t>
+  </si>
+  <si>
+    <t>Prezydent Miasta Warszawa</t>
+  </si>
+  <si>
+    <t>budowa nowego/nowych obiektów budowlanych</t>
   </si>
 </sst>
 </file>
@@ -416,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,6 +467,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EEE4D-70EA-45EF-AAA7-E4FCDFE1EF41}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +774,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +790,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="12"/>
     </row>
@@ -780,69 +799,61 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <v>44927</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="18">
+        <v>45292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,74 +861,62 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="12"/>
     </row>
@@ -926,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,16 +933,14 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -979,26 +976,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="12"/>
     </row>
@@ -1007,18 +1004,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9"/>
     </row>
@@ -1042,13 +1039,13 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" s="12"/>
     </row>
@@ -1066,19 +1063,19 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="9"/>
     </row>
@@ -1090,13 +1087,13 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8"/>
     </row>
@@ -1108,103 +1105,103 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="8"/>
     </row>
@@ -1216,166 +1213,166 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45" s="12"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B50" s="12"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B55" s="12"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B59" s="12"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B63" s="12"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" s="12"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1404,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B77E10-6419-4111-A34F-0ADC4DC4592B}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/parametry_wyszukiwania.xlsx
+++ b/parametry_wyszukiwania.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkubon\kn\0-git-repos\GUNB-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062ABAE9-D360-4EB2-8799-C4276DB47D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C1C30-0235-480F-B7D7-E008474139AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="-21600" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane wyszukiwania" sheetId="3" r:id="rId1"/>
     <sheet name="wybór danych do zapisu" sheetId="4" r:id="rId2"/>
     <sheet name="dane ogólne" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="-" sheetId="1" r:id="rId4"/>
+    <sheet name="wynik wyszukiwania" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
   <si>
     <t>Ścieżka do zrzutów ekranu</t>
   </si>
@@ -312,10 +313,190 @@
     <t>Zamierzenie budowlane</t>
   </si>
   <si>
-    <t>Prezydent Miasta Warszawa</t>
-  </si>
-  <si>
     <t>budowa nowego/nowych obiektów budowlanych</t>
+  </si>
+  <si>
+    <t>Typ dokumentu (Rejestr Wniosków i Decyzji)</t>
+  </si>
+  <si>
+    <t>Dowolny</t>
+  </si>
+  <si>
+    <t>W trakcie rozpatrywania</t>
+  </si>
+  <si>
+    <t>Wycofany przez inwestora</t>
+  </si>
+  <si>
+    <t>Bez rozpatrzenia</t>
+  </si>
+  <si>
+    <t>Decyzja odmowna</t>
+  </si>
+  <si>
+    <t>Decyzja umarzająca</t>
+  </si>
+  <si>
+    <t>Cała Polska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Dowolne</t>
+  </si>
+  <si>
+    <t>rozbudowa istniejącego/istniejących obiektów budowlanych</t>
+  </si>
+  <si>
+    <t>nadbudowa istniejącego/istniejących obiektów budowlanych</t>
+  </si>
+  <si>
+    <t>odbudowa istniejącego/istniejących obiektów budowlanych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rozbiórka istniejącego obiektu budowlanego </t>
+  </si>
+  <si>
+    <t>wykonanie robót budowlanych innych niż wymienione powyżej</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>XIII</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>XVI</t>
+  </si>
+  <si>
+    <t>XVII</t>
+  </si>
+  <si>
+    <t>XVIII</t>
+  </si>
+  <si>
+    <t>XIX</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>XXI</t>
+  </si>
+  <si>
+    <t>XXII</t>
+  </si>
+  <si>
+    <t>XXIII</t>
+  </si>
+  <si>
+    <t>XXIV</t>
+  </si>
+  <si>
+    <t>XXV</t>
+  </si>
+  <si>
+    <t>XXVI</t>
+  </si>
+  <si>
+    <t>XXVII</t>
+  </si>
+  <si>
+    <t>XXVIII</t>
+  </si>
+  <si>
+    <t>XXIX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie zgłoszeń zamierzenia budowlanego (jeszcze nie wspierany ...)</t>
+  </si>
+  <si>
+    <t>polski obszar morski</t>
+  </si>
+  <si>
+    <t>Województwo 1</t>
+  </si>
+  <si>
+    <t>Województwo 2</t>
   </si>
 </sst>
 </file>
@@ -355,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +558,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -431,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -451,12 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,6 +670,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -752,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EEE4D-70EA-45EF-AAA7-E4FCDFE1EF41}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,10 +981,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -776,7 +992,7 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -789,10 +1005,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -818,21 +1034,21 @@
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>44927</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>45292</v>
       </c>
     </row>
@@ -843,17 +1059,17 @@
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,21 +1077,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,17 +1131,17 @@
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,6 +1157,11 @@
         <v>19</v>
       </c>
       <c r="B26" s="3"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -954,6 +1175,48 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D596C8F-AE03-436C-91C2-7BED9D03B1E8}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$29:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F40EB6D8-15EA-4EFE-8C44-089B7A59C2F9}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$31:$B$37</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D75ACAF-C56D-4BBB-B2D1-0A43408ECBE2}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$38:$B$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8862DF7-4CD2-4212-9921-F10292691EA1}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$73:$B$79</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECFD50DA-AA69-407A-8BAE-AD36212CA6F2}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$80:$B$109</xm:f>
+          </x14:formula1>
+          <xm:sqref>B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{959EF33E-DED4-4011-92AD-3529E5CB1299}">
+          <x14:formula1>
+            <xm:f>'dane ogólne'!$B$55:$B$72</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -972,10 +1235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -994,10 +1257,10 @@
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1044,10 +1307,10 @@
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1068,10 +1331,10 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1104,10 +1367,10 @@
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1122,10 +1385,10 @@
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1152,10 +1415,10 @@
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="27"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1170,10 +1433,10 @@
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="27"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -1194,10 +1457,10 @@
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="27"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1218,10 +1481,10 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="27"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -1242,10 +1505,10 @@
       <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -1272,10 +1535,10 @@
       <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="27"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -1302,10 +1565,10 @@
       <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="27"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -1326,10 +1589,10 @@
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="27"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -1350,10 +1613,10 @@
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="27"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -1362,10 +1625,10 @@
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="27"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -1377,6 +1640,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
@@ -1387,11 +1655,6 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1399,16 +1662,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B77E10-6419-4111-A34F-0ADC4DC4592B}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,12 +1698,805 @@
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+      <c r="B107" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="18"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="18"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+      <c r="B133" s="18"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="17"/>
+      <c r="B137" s="18"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="17"/>
+      <c r="B139" s="18"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="17"/>
+      <c r="B142" s="18"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+      <c r="B143" s="18"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="17"/>
+      <c r="B145" s="18"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="17"/>
+      <c r="B148" s="18"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="17"/>
+      <c r="B149" s="18"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="17"/>
+      <c r="B152" s="18"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="17"/>
+      <c r="B154" s="18"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="17"/>
+      <c r="B155" s="18"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="17"/>
+      <c r="B157" s="18"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="17"/>
+      <c r="B158" s="18"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1449,11 +2505,23 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7432C2-BF6F-4B20-B1CE-396493650F61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>